--- a/01-Requirement/Adcadamic/Score/2-List score for student by semester.xlsx
+++ b/01-Requirement/Adcadamic/Score/2-List score for student by semester.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp\vhosts\ume-system\01-Requirement\Score\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Copy\wamp\www\ume-system\01-Requirement\Adcadamic\Score\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Management" sheetId="1" r:id="rId1"/>
@@ -19930,12 +19930,12 @@
   </sheetPr>
   <dimension ref="A19:L106"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <pane xSplit="7" ySplit="7" topLeftCell="H98" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <pane xSplit="7" ySplit="7" topLeftCell="H87" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A13" sqref="A13"/>
       <selection pane="topRight" activeCell="H13" sqref="H13"/>
       <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
-      <selection pane="bottomRight" activeCell="E105" sqref="E105"/>
+      <selection pane="bottomRight" activeCell="P92" sqref="P92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26681,7 +26681,7 @@
     <sheetView topLeftCell="A15" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A15" sqref="A15"/>
-      <selection pane="bottomLeft" activeCell="H102" sqref="H102"/>
+      <selection pane="bottomLeft" activeCell="K99" sqref="K99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29863,8 +29863,8 @@
   </sheetPr>
   <dimension ref="A15:P102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C102" sqref="C102"/>
+    <sheetView topLeftCell="D89" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
